--- a/WaterCan Project Status.xlsx
+++ b/WaterCan Project Status.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\sanju\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\status\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -82,9 +82,6 @@
     <t>zaheer</t>
   </si>
   <si>
-    <t>zaheer.lr@gmail.com</t>
-  </si>
-  <si>
     <t>jayaraman</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>shaik.zaheer2014@yahoo.com</t>
+  </si>
+  <si>
+    <t>zaheerforadsence@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -232,14 +232,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -567,7 +567,7 @@
   <dimension ref="C4:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,69 +578,69 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>26</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>18</v>
+      <c r="D5" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2"/>
-    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -667,20 +667,20 @@
       </c>
     </row>
     <row r="3" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
@@ -793,7 +793,7 @@
   <dimension ref="C4:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E10"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,20 +808,20 @@
       </c>
     </row>
     <row r="5" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
